--- a/Experiments/Measurements/Two Banners Back 2 Back/Straight Path/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Back 2 Back/Straight Path/Transformed_Coordinates.xlsx
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>178.8540303277707</v>
+        <v>178.854030327771</v>
       </c>
       <c r="H2" t="n">
-        <v>95.00405751882235</v>
+        <v>95.00405751882239</v>
       </c>
     </row>
     <row r="3">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>158.7994754707823</v>
+        <v>158.7994754707825</v>
       </c>
       <c r="H3" t="n">
-        <v>94.39142921560648</v>
+        <v>94.39142921560661</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>137.9633055156679</v>
+        <v>137.9633055156681</v>
       </c>
       <c r="H4" t="n">
-        <v>93.75572975392852</v>
+        <v>93.75572975392866</v>
       </c>
     </row>
     <row r="5">
@@ -592,7 +592,7 @@
         <v>118.3351688864955</v>
       </c>
       <c r="H5" t="n">
-        <v>93.32160030013279</v>
+        <v>93.32160030013269</v>
       </c>
     </row>
     <row r="6">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>92.43812818199746</v>
+        <v>92.43812818199753</v>
       </c>
       <c r="H6" t="n">
-        <v>93.21873806691296</v>
+        <v>93.21873806691286</v>
       </c>
     </row>
     <row r="7">
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>83.49236527827131</v>
+        <v>83.49236527827155</v>
       </c>
       <c r="H7" t="n">
-        <v>97.95129305443592</v>
+        <v>97.95129305443598</v>
       </c>
     </row>
     <row r="8">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>139.8708418014499</v>
+        <v>139.8708418014502</v>
       </c>
       <c r="H8" t="n">
-        <v>95.12657078733221</v>
+        <v>95.12657078733226</v>
       </c>
     </row>
     <row r="9">
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>158.7281072648221</v>
+        <v>158.7281072648223</v>
       </c>
       <c r="H9" t="n">
-        <v>94.39004089370192</v>
+        <v>94.39004089370205</v>
       </c>
     </row>
     <row r="10">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>135.5004791771591</v>
+        <v>135.5004791771593</v>
       </c>
       <c r="H10" t="n">
-        <v>93.73812054321873</v>
+        <v>93.73812054321886</v>
       </c>
     </row>
     <row r="11">
@@ -772,7 +772,7 @@
         <v>118.7942240945314</v>
       </c>
       <c r="H11" t="n">
-        <v>93.17462165310489</v>
+        <v>93.17462165310481</v>
       </c>
     </row>
     <row r="12">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>111.6086296800136</v>
+        <v>111.6086296800137</v>
       </c>
       <c r="H12" t="n">
-        <v>93.20401253959767</v>
+        <v>93.20401253959757</v>
       </c>
     </row>
     <row r="13">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>102.1754354166592</v>
+        <v>102.1754354166594</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99681473055827</v>
+        <v>93.99681473055833</v>
       </c>
     </row>
     <row r="14">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>153.4463950248569</v>
+        <v>153.4463950248571</v>
       </c>
       <c r="H14" t="n">
-        <v>94.05083301780707</v>
+        <v>94.05083301780712</v>
       </c>
     </row>
     <row r="15">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>128.413722044264</v>
+        <v>128.4137220442641</v>
       </c>
       <c r="H15" t="n">
-        <v>91.97509082440318</v>
+        <v>91.97509082440332</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>114.5250526196339</v>
+        <v>114.5250526196341</v>
       </c>
       <c r="H16" t="n">
-        <v>90.16988436726692</v>
+        <v>90.16988436726706</v>
       </c>
     </row>
     <row r="17">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>94.7371482986557</v>
+        <v>94.73714829865577</v>
       </c>
       <c r="H17" t="n">
-        <v>88.24225154552268</v>
+        <v>88.24225154552259</v>
       </c>
     </row>
     <row r="18">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>94.52679337577035</v>
+        <v>94.52679337577042</v>
       </c>
       <c r="H18" t="n">
-        <v>88.408923621634</v>
+        <v>88.40892362163392</v>
       </c>
     </row>
     <row r="19">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>120.5649018786734</v>
+        <v>120.5649018786737</v>
       </c>
       <c r="H19" t="n">
-        <v>93.57976713932312</v>
+        <v>93.57976713932318</v>
       </c>
     </row>
     <row r="20">
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>153.5069958339236</v>
+        <v>153.5069958339238</v>
       </c>
       <c r="H20" t="n">
-        <v>94.05148321533521</v>
+        <v>94.05148321533527</v>
       </c>
     </row>
     <row r="21">
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>132.8849137102643</v>
+        <v>132.8849137102645</v>
       </c>
       <c r="H21" t="n">
-        <v>92.07240060858436</v>
+        <v>92.0724006085845</v>
       </c>
     </row>
     <row r="22">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>109.9263350971257</v>
+        <v>109.9263350971259</v>
       </c>
       <c r="H22" t="n">
-        <v>90.3194241488804</v>
+        <v>90.31942414888054</v>
       </c>
     </row>
     <row r="23">
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>94.5533636807604</v>
+        <v>94.55336368076047</v>
       </c>
       <c r="H23" t="n">
-        <v>88.40023530642863</v>
+        <v>88.40023530642854</v>
       </c>
     </row>
     <row r="24">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>95.64857572792954</v>
+        <v>95.64857572792918</v>
       </c>
       <c r="H24" t="n">
-        <v>89.54539869254593</v>
+        <v>89.54539869254563</v>
       </c>
     </row>
     <row r="25">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>141.0066728136184</v>
+        <v>141.0066728136186</v>
       </c>
       <c r="H25" t="n">
-        <v>89.20434114447526</v>
+        <v>89.20434114447539</v>
       </c>
     </row>
     <row r="26">
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>123.6225647467164</v>
+        <v>123.6225647467166</v>
       </c>
       <c r="H26" t="n">
-        <v>89.18510218675532</v>
+        <v>89.18510218675544</v>
       </c>
     </row>
     <row r="27">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>139.69051589699</v>
+        <v>139.6905158969902</v>
       </c>
       <c r="H29" t="n">
-        <v>94.0051143612508</v>
+        <v>94.00511436125095</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>148.4140783059214</v>
+        <v>148.4140783059215</v>
       </c>
       <c r="H30" t="n">
-        <v>94.07271490891861</v>
+        <v>94.07271490891875</v>
       </c>
     </row>
     <row r="31">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>18.47419389073857</v>
+        <v>18.47419389073874</v>
       </c>
       <c r="H31" t="n">
-        <v>96.96206479204456</v>
+        <v>96.9620647920447</v>
       </c>
     </row>
     <row r="32">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>133.9438069072639</v>
+        <v>133.9438069072635</v>
       </c>
       <c r="H33" t="n">
-        <v>93.63532559416554</v>
+        <v>93.63532559416528</v>
       </c>
     </row>
     <row r="34">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>110.3609123868527</v>
+        <v>110.3609123868523</v>
       </c>
       <c r="H34" t="n">
-        <v>93.52394729962238</v>
+        <v>93.52394729962211</v>
       </c>
     </row>
     <row r="35">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>136.4098368986163</v>
+        <v>136.4098368986165</v>
       </c>
       <c r="H36" t="n">
-        <v>93.0972886564692</v>
+        <v>93.09728865646935</v>
       </c>
     </row>
     <row r="37">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>133.7038519756431</v>
+        <v>133.7038519756427</v>
       </c>
       <c r="H37" t="n">
-        <v>93.62541311927423</v>
+        <v>93.62541311927396</v>
       </c>
     </row>
     <row r="38">
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>148.3983673773327</v>
+        <v>148.3983673773329</v>
       </c>
       <c r="H39" t="n">
-        <v>94.07289980797731</v>
+        <v>94.07289980797744</v>
       </c>
     </row>
     <row r="40">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>119.2333020781485</v>
+        <v>119.2333020781484</v>
       </c>
       <c r="H40" t="n">
-        <v>90.64551430071486</v>
+        <v>90.64551430071462</v>
       </c>
     </row>
     <row r="41">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>148.9844426156404</v>
+        <v>148.9844426156406</v>
       </c>
       <c r="H42" t="n">
-        <v>94.09317462909785</v>
+        <v>94.09317462909799</v>
       </c>
     </row>
     <row r="43">
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>100.9958537317195</v>
+        <v>100.9958537317191</v>
       </c>
       <c r="H44" t="n">
-        <v>89.39283336885921</v>
+        <v>89.39283336885892</v>
       </c>
     </row>
     <row r="45">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>120.9337868949359</v>
+        <v>120.933786894936</v>
       </c>
       <c r="H47" t="n">
-        <v>91.0027583525771</v>
+        <v>91.00275835257725</v>
       </c>
     </row>
     <row r="48">
@@ -1909,10 +1909,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>155.8592461614897</v>
+        <v>155.8592461614899</v>
       </c>
       <c r="H49" t="n">
-        <v>89.27934872764079</v>
+        <v>89.27934872764092</v>
       </c>
     </row>
     <row r="50">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>103.576740760371</v>
+        <v>103.5767407603707</v>
       </c>
       <c r="H50" t="n">
-        <v>89.65355943831406</v>
+        <v>89.65355943831376</v>
       </c>
     </row>
     <row r="51">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>134.3431624218482</v>
+        <v>134.3431624218484</v>
       </c>
       <c r="H51" t="n">
-        <v>92.32982498926057</v>
+        <v>92.32982498926071</v>
       </c>
     </row>
     <row r="52">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>131.5623244579047</v>
+        <v>131.5623244579045</v>
       </c>
       <c r="H52" t="n">
-        <v>54.85429043792703</v>
+        <v>54.8542904379269</v>
       </c>
     </row>
     <row r="53">
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>107.3768396432812</v>
+        <v>107.3768396432808</v>
       </c>
       <c r="H53" t="n">
-        <v>54.5598435245543</v>
+        <v>54.55984352455403</v>
       </c>
     </row>
     <row r="54">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>128.2012517990438</v>
+        <v>128.201251799044</v>
       </c>
       <c r="H54" t="n">
-        <v>54.04278180569655</v>
+        <v>54.04278180569668</v>
       </c>
     </row>
     <row r="55">
@@ -2145,10 +2145,10 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>112.9192450024243</v>
+        <v>112.9192450024241</v>
       </c>
       <c r="H57" t="n">
-        <v>54.35895792630559</v>
+        <v>54.35895792630545</v>
       </c>
     </row>
     <row r="58">
@@ -2175,10 +2175,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>166.8733148743396</v>
+        <v>166.8733148743394</v>
       </c>
       <c r="H58" t="n">
-        <v>54.60159500161883</v>
+        <v>54.6015950016187</v>
       </c>
     </row>
     <row r="59">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>160.5432836152696</v>
+        <v>160.5432836152693</v>
       </c>
       <c r="H59" t="n">
-        <v>54.3956606959588</v>
+        <v>54.39566069595854</v>
       </c>
     </row>
     <row r="60">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>140.8730741296999</v>
+        <v>140.8730741297001</v>
       </c>
       <c r="H60" t="n">
-        <v>54.12761293639821</v>
+        <v>54.12761293639834</v>
       </c>
     </row>
     <row r="61">
@@ -2325,10 +2325,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>93.53580964956372</v>
+        <v>93.53580964956355</v>
       </c>
       <c r="H63" t="n">
-        <v>53.69263300944359</v>
+        <v>53.69263300944345</v>
       </c>
     </row>
     <row r="64">
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>144.9346446322522</v>
+        <v>144.934644632252</v>
       </c>
       <c r="H64" t="n">
-        <v>57.26578171141801</v>
+        <v>57.26578171141787</v>
       </c>
     </row>
     <row r="65">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>124.3569267399747</v>
+        <v>124.3569267399744</v>
       </c>
       <c r="H65" t="n">
-        <v>55.46976789484407</v>
+        <v>55.46976789484378</v>
       </c>
     </row>
     <row r="66">
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>140.8090587235465</v>
+        <v>140.8090587235467</v>
       </c>
       <c r="H66" t="n">
-        <v>54.25275541800413</v>
+        <v>54.25275541800426</v>
       </c>
     </row>
     <row r="67">
@@ -2505,10 +2505,10 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>100.4569113508956</v>
+        <v>100.4569113508954</v>
       </c>
       <c r="H69" t="n">
-        <v>53.93536176391947</v>
+        <v>53.93536176391933</v>
       </c>
     </row>
     <row r="70">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>149.0995143760332</v>
+        <v>149.0995143760331</v>
       </c>
       <c r="H70" t="n">
-        <v>53.75744229420079</v>
+        <v>53.75744229420065</v>
       </c>
     </row>
     <row r="71">
@@ -2565,10 +2565,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>138.9290065277217</v>
+        <v>138.9290065277214</v>
       </c>
       <c r="H71" t="n">
-        <v>52.3339385470257</v>
+        <v>52.33393854702541</v>
       </c>
     </row>
     <row r="72">
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>119.1788872244383</v>
+        <v>119.1788872244385</v>
       </c>
       <c r="H72" t="n">
-        <v>50.9572296083763</v>
+        <v>50.95722960837644</v>
       </c>
     </row>
     <row r="73">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>98.44102597362343</v>
+        <v>98.44102597362381</v>
       </c>
       <c r="H74" t="n">
-        <v>49.22898688017264</v>
+        <v>49.2289868801729</v>
       </c>
     </row>
     <row r="75">
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>100.8439941769219</v>
+        <v>100.8439941769221</v>
       </c>
       <c r="H75" t="n">
-        <v>49.91652907582068</v>
+        <v>49.91652907582082</v>
       </c>
     </row>
     <row r="76">
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>139.5486749723715</v>
+        <v>139.5486749723713</v>
       </c>
       <c r="H76" t="n">
-        <v>52.93050173054271</v>
+        <v>52.93050173054233</v>
       </c>
     </row>
     <row r="77">
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>76.63510428694184</v>
+        <v>76.63510428694218</v>
       </c>
       <c r="H77" t="n">
-        <v>55.20705940698845</v>
+        <v>55.20705940698874</v>
       </c>
     </row>
     <row r="78">
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>113.5594950351302</v>
+        <v>113.5594950351298</v>
       </c>
       <c r="H78" t="n">
-        <v>54.61958785588808</v>
+        <v>54.61958785588782</v>
       </c>
     </row>
     <row r="79">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>135.1907562232787</v>
+        <v>135.1907562232785</v>
       </c>
       <c r="H79" t="n">
-        <v>54.03090871497682</v>
+        <v>54.03090871497668</v>
       </c>
     </row>
     <row r="80">
@@ -2835,10 +2835,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>150.5899755890924</v>
+        <v>150.5899755890927</v>
       </c>
       <c r="H80" t="n">
-        <v>54.25590607722038</v>
+        <v>54.25590607722065</v>
       </c>
     </row>
     <row r="81">
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>145.5589921099577</v>
+        <v>145.5589921099576</v>
       </c>
       <c r="H81" t="n">
-        <v>54.18546743821089</v>
+        <v>54.18546743821075</v>
       </c>
     </row>
     <row r="82">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>105.6003621347746</v>
+        <v>105.6003621347748</v>
       </c>
       <c r="H82" t="n">
-        <v>54.25811332948889</v>
+        <v>54.25811332948903</v>
       </c>
     </row>
     <row r="83">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>130.6712700947947</v>
+        <v>130.6712700947949</v>
       </c>
       <c r="H83" t="n">
-        <v>53.99496730736074</v>
+        <v>53.99496730736087</v>
       </c>
     </row>
     <row r="84">
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>98.54272461618372</v>
+        <v>98.54272461618342</v>
       </c>
       <c r="H85" t="n">
-        <v>54.11454386039029</v>
+        <v>54.11454386038993</v>
       </c>
     </row>
     <row r="86">
@@ -3015,10 +3015,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>137.3362221927496</v>
+        <v>137.33622219275</v>
       </c>
       <c r="H86" t="n">
-        <v>54.14789720715381</v>
+        <v>54.14789720715407</v>
       </c>
     </row>
     <row r="87">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>160.1378219529574</v>
+        <v>160.137821952957</v>
       </c>
       <c r="H88" t="n">
-        <v>54.38238851901101</v>
+        <v>54.38238851901074</v>
       </c>
     </row>
     <row r="89">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>130.6596957859995</v>
+        <v>130.6596957859997</v>
       </c>
       <c r="H90" t="n">
-        <v>53.97969823059599</v>
+        <v>53.97969823059613</v>
       </c>
     </row>
     <row r="91">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>157.1962711887204</v>
+        <v>157.1962711887201</v>
       </c>
       <c r="H91" t="n">
-        <v>54.44995570743375</v>
+        <v>54.44995570743339</v>
       </c>
     </row>
     <row r="92">
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>119.161872947861</v>
+        <v>119.1618729478612</v>
       </c>
       <c r="H92" t="n">
-        <v>50.91362725097804</v>
+        <v>50.91362725097818</v>
       </c>
     </row>
     <row r="93">
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>128.2469018180095</v>
+        <v>128.2469018180093</v>
       </c>
       <c r="H93" t="n">
-        <v>54.08050829740619</v>
+        <v>54.08050829740606</v>
       </c>
     </row>
     <row r="94">
@@ -3255,10 +3255,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>102.2631897274246</v>
+        <v>102.2631897274245</v>
       </c>
       <c r="H94" t="n">
-        <v>50.27171554044344</v>
+        <v>50.27171554044329</v>
       </c>
     </row>
     <row r="95">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>84.25598308850179</v>
+        <v>84.25598308850151</v>
       </c>
       <c r="H95" t="n">
-        <v>52.85802526105962</v>
+        <v>52.85802526105925</v>
       </c>
     </row>
     <row r="96">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>129.1756891069001</v>
+        <v>129.1756891069004</v>
       </c>
       <c r="H96" t="n">
-        <v>51.52353486184123</v>
+        <v>51.52353486184153</v>
       </c>
     </row>
     <row r="97">
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>110.8623482400716</v>
+        <v>110.8623482400718</v>
       </c>
       <c r="H97" t="n">
-        <v>49.65039283251474</v>
+        <v>49.65039283251487</v>
       </c>
     </row>
     <row r="98">
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>149.097586527143</v>
+        <v>149.0975865271427</v>
       </c>
       <c r="H99" t="n">
-        <v>53.14715714256376</v>
+        <v>53.14715714256339</v>
       </c>
     </row>
     <row r="100">
@@ -3435,10 +3435,10 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>84.03907413436853</v>
+        <v>84.03907413436889</v>
       </c>
       <c r="H100" t="n">
-        <v>51.32632378042711</v>
+        <v>51.3263237804274</v>
       </c>
     </row>
     <row r="101">
